--- a/python-in-excel-rolling-correlations-demo.xlsx
+++ b/python-in-excel-rolling-correlations-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF7B570-8594-431D-B7EE-1F9D2420DAA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691130C6-0981-41EC-9E71-6050D3F9F7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{818E37DD-3BE3-4544-AB96-D391EF9B8F64}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Correlation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,8 +36,122 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="4">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="4">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>prices_df = xl(%P2%, headers=True)
+prices_df = prices_df.set_index('Date')
+returns_df = prices_df.pct_change().dropna()</code>
+    </pythonScript>
+    <pythonScript>
+      <code xml:space="preserve">window_size = xl(%P2%)
+rolling_corr = returns_df['EBAY'].rolling(window=window_size).corr(returns_df['XOM'])
+</code>
+    </pythonScript>
+    <pythonScript>
+      <code xml:space="preserve">plt.figure(figsize=(12, 6))
+rolling_corr.plot()
+plt.title(f"{window_size}-Day Rolling Correlation: EBAY vs XOM")
+plt.xlabel("Date")
+plt.ylabel("Correlation")
+</code>
+    </pythonScript>
+    <pythonScript>
+      <code>plt.figure(figsize=(8, 6))
+plt.scatter(returns_df['EBAY'], returns_df['XOM'], alpha=0.6)
+plt.title("Daily Returns: EBAY vs XOM")
+plt.xlabel("EBAY Returns")
+plt.ylabel("XOM Returns")</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +278,21 @@
   </si>
   <si>
     <t>rolling correlation as a signal?</t>
+  </si>
+  <si>
+    <t>Set up data, calculate returns</t>
+  </si>
+  <si>
+    <t>Select window size:</t>
+  </si>
+  <si>
+    <t>Compute rolling correlation</t>
+  </si>
+  <si>
+    <t>Create plot</t>
+  </si>
+  <si>
+    <t>Create scatterplot</t>
   </si>
 </sst>
 </file>
@@ -322,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -345,6 +471,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,28 +481,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <fill>
@@ -445,13 +553,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -464,7 +565,35 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4968,6 +5097,109 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66126</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EB6E4C-36E5-0D65-0AEF-9D6CB06BDF74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="data!F4"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857876" y="2581276"/>
+          <a:ext cx="10872238" cy="5394971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>548272</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>259090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA49ADC0-C5BF-BD44-F530-7AD02AEB86E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="data!F26"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5757863" y="8858250"/>
+          <a:ext cx="6501397" cy="4983490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -5047,3276 +5279,346 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId3"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Two Mystery Distributions"/>
-      <sheetName val="Normal Distribution"/>
-      <sheetName val="Historical Distribution"/>
-      <sheetName val="Correlation"/>
-      <sheetName val="Spearman"/>
-      <sheetName val="Which correlation"/>
-      <sheetName val="Minimum Variance Hedging"/>
-      <sheetName val="Multiple Regression"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="12">
-          <cell r="F12" t="str">
-            <v>XOM_rtn</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>42849</v>
-          </cell>
-          <cell r="E13">
-            <v>0</v>
-          </cell>
-          <cell r="F13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>42850</v>
-          </cell>
-          <cell r="E14">
-            <v>2.3436163606331311E-2</v>
-          </cell>
-          <cell r="F14">
-            <v>7.6148734457850828E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>42851</v>
-          </cell>
-          <cell r="E15">
-            <v>6.077198892091195E-3</v>
-          </cell>
-          <cell r="F15">
-            <v>-4.0458585195436835E-3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>42852</v>
-          </cell>
-          <cell r="E16">
-            <v>1.5135465277767133E-3</v>
-          </cell>
-          <cell r="F16">
-            <v>-1.7213824489139785E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>42853</v>
-          </cell>
-          <cell r="E17">
-            <v>1.0231807589776409E-2</v>
-          </cell>
-          <cell r="F17">
-            <v>4.7879288568935356E-3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>42856</v>
-          </cell>
-          <cell r="E18">
-            <v>-2.6982477770663522E-3</v>
-          </cell>
-          <cell r="F18">
-            <v>5.0088675975657766E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>42857</v>
-          </cell>
-          <cell r="E19">
-            <v>5.6877866254324769E-3</v>
-          </cell>
-          <cell r="F19">
-            <v>-1.2186947794019393E-4</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>42858</v>
-          </cell>
-          <cell r="E20">
-            <v>-7.189965066239163E-3</v>
-          </cell>
-          <cell r="F20">
-            <v>7.8907844935458896E-3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>42859</v>
-          </cell>
-          <cell r="E21">
-            <v>7.4884279844373569E-3</v>
-          </cell>
-          <cell r="F21">
-            <v>-1.2900264088001646E-2</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>42860</v>
-          </cell>
-          <cell r="E22">
-            <v>-2.9846291819818935E-4</v>
-          </cell>
-          <cell r="F22">
-            <v>4.6437820222691561E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>42863</v>
-          </cell>
-          <cell r="E23">
-            <v>-7.7914688437732103E-3</v>
-          </cell>
-          <cell r="F23">
-            <v>1.055130763952165E-2</v>
-          </cell>
-          <cell r="G23">
-            <v>-3.727655887140495E-2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>42864</v>
-          </cell>
-          <cell r="E24">
-            <v>1.4337163146407249E-2</v>
-          </cell>
-          <cell r="F24">
-            <v>-7.0218206188821779E-3</v>
-          </cell>
-          <cell r="G24">
-            <v>-0.2236576766769407</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>42865</v>
-          </cell>
-          <cell r="E25">
-            <v>4.7337366501991425E-3</v>
-          </cell>
-          <cell r="F25">
-            <v>-4.8715234570420327E-3</v>
-          </cell>
-          <cell r="G25">
-            <v>-0.73087586756769241</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>42866</v>
-          </cell>
-          <cell r="E26">
-            <v>7.0588528396246068E-3</v>
-          </cell>
-          <cell r="F26">
-            <v>8.5096550469032466E-3</v>
-          </cell>
-          <cell r="G26">
-            <v>-0.72034429696627811</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>42867</v>
-          </cell>
-          <cell r="E27">
-            <v>-1.4664909506030758E-3</v>
-          </cell>
-          <cell r="F27">
-            <v>-7.2656820827696504E-4</v>
-          </cell>
-          <cell r="G27">
-            <v>-0.62420054270979486</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>42870</v>
-          </cell>
-          <cell r="E28">
-            <v>3.2234460145696897E-3</v>
-          </cell>
-          <cell r="F28">
-            <v>3.0238910250769192E-3</v>
-          </cell>
-          <cell r="G28">
-            <v>-0.69417070090613264</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>42871</v>
-          </cell>
-          <cell r="E29">
-            <v>1.8264024135902761E-2</v>
-          </cell>
-          <cell r="F29">
-            <v>-3.0238910250770063E-3</v>
-          </cell>
-          <cell r="G29">
-            <v>-0.67471471444600606</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>42872</v>
-          </cell>
-          <cell r="E30">
-            <v>-3.5974050173952922E-2</v>
-          </cell>
-          <cell r="F30">
-            <v>-6.8068817580506967E-3</v>
-          </cell>
-          <cell r="G30">
-            <v>-0.63450308022277435</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>42873</v>
-          </cell>
-          <cell r="E31">
-            <v>4.4569974241641134E-3</v>
-          </cell>
-          <cell r="F31">
-            <v>-2.9314788307234453E-3</v>
-          </cell>
-          <cell r="G31">
-            <v>-3.4842099699377377E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>42874</v>
-          </cell>
-          <cell r="E32">
-            <v>2.9603337190582685E-3</v>
-          </cell>
-          <cell r="F32">
-            <v>2.199414376360581E-3</v>
-          </cell>
-          <cell r="G32">
-            <v>4.6847893711298862E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>42877</v>
-          </cell>
-          <cell r="E33">
-            <v>8.8639391237212053E-4</v>
-          </cell>
-          <cell r="F33">
-            <v>4.3843694638982227E-3</v>
-          </cell>
-          <cell r="G33">
-            <v>5.9999404041570371E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>42878</v>
-          </cell>
-          <cell r="E34">
-            <v>2.1908280942263665E-2</v>
-          </cell>
-          <cell r="F34">
-            <v>3.5179268403224503E-3</v>
-          </cell>
-          <cell r="G34">
-            <v>0.21866218887005628</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>42879</v>
-          </cell>
-          <cell r="E35">
-            <v>6.0492766927900486E-3</v>
-          </cell>
-          <cell r="F35">
-            <v>-3.5179268403225192E-3</v>
-          </cell>
-          <cell r="G35">
-            <v>0.45620040623538083</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>42880</v>
-          </cell>
-          <cell r="E36">
-            <v>1.142216872801714E-2</v>
-          </cell>
-          <cell r="F36">
-            <v>-6.5837838402588852E-3</v>
-          </cell>
-          <cell r="G36">
-            <v>0.46624055320412849</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>42881</v>
-          </cell>
-          <cell r="E37">
-            <v>-9.1272738596786095E-3</v>
-          </cell>
-          <cell r="F37">
-            <v>-2.4494807103399331E-3</v>
-          </cell>
-          <cell r="G37">
-            <v>0.36107612695418723</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>42885</v>
-          </cell>
-          <cell r="E38">
-            <v>-8.0552794603182907E-3</v>
-          </cell>
-          <cell r="F38">
-            <v>-5.5333679456556883E-3</v>
-          </cell>
-          <cell r="G38">
-            <v>0.37840793550142832</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>42886</v>
-          </cell>
-          <cell r="E39">
-            <v>-9.2861955761689586E-3</v>
-          </cell>
-          <cell r="F39">
-            <v>-7.4257766968494265E-3</v>
-          </cell>
-          <cell r="G39">
-            <v>0.43209442144384291</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>42887</v>
-          </cell>
-          <cell r="E40">
-            <v>1.4184634991956381E-2</v>
-          </cell>
-          <cell r="F40">
-            <v>2.481390851385476E-3</v>
-          </cell>
-          <cell r="G40">
-            <v>0.51933338050311173</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>42888</v>
-          </cell>
-          <cell r="E41">
-            <v>1.511938657190859E-2</v>
-          </cell>
-          <cell r="F41">
-            <v>-1.4981553615616946E-2</v>
-          </cell>
-          <cell r="G41">
-            <v>0.49576937495730683</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>42891</v>
-          </cell>
-          <cell r="E42">
-            <v>6.4907805134905971E-3</v>
-          </cell>
-          <cell r="F42">
-            <v>7.7684891373312418E-3</v>
-          </cell>
-          <cell r="G42">
-            <v>0.10494688061301041</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>42892</v>
-          </cell>
-          <cell r="E43">
-            <v>-2.2528874637193341E-3</v>
-          </cell>
-          <cell r="F43">
-            <v>1.3512881496701858E-2</v>
-          </cell>
-          <cell r="G43">
-            <v>0.1322779501477381</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>42893</v>
-          </cell>
-          <cell r="E44">
-            <v>8.4222844853959668E-3</v>
-          </cell>
-          <cell r="F44">
-            <v>-3.7009664745712273E-3</v>
-          </cell>
-          <cell r="G44">
-            <v>7.7632332829778552E-3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>42894</v>
-          </cell>
-          <cell r="E45">
-            <v>1.0290731893156024E-2</v>
-          </cell>
-          <cell r="F45">
-            <v>-3.5906681307284844E-3</v>
-          </cell>
-          <cell r="G45">
-            <v>-0.13560337153660493</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>42895</v>
-          </cell>
-          <cell r="E46">
-            <v>-3.3767980458171983E-2</v>
-          </cell>
-          <cell r="F46">
-            <v>1.8556600063081057E-2</v>
-          </cell>
-          <cell r="G46">
-            <v>-0.1418166506869134</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>42898</v>
-          </cell>
-          <cell r="E47">
-            <v>-2.2869718689111456E-2</v>
-          </cell>
-          <cell r="F47">
-            <v>9.6935207110115853E-3</v>
-          </cell>
-          <cell r="G47">
-            <v>-0.52859270153370641</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>42899</v>
-          </cell>
-          <cell r="E48">
-            <v>9.3267945119748473E-3</v>
-          </cell>
-          <cell r="F48">
-            <v>3.6168545815930557E-4</v>
-          </cell>
-          <cell r="G48">
-            <v>-0.6038856487954718</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>42900</v>
-          </cell>
-          <cell r="E49">
-            <v>8.6994350854003536E-4</v>
-          </cell>
-          <cell r="F49">
-            <v>-1.0786022279651608E-2</v>
-          </cell>
-          <cell r="G49">
-            <v>-0.65668271235490161</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>42901</v>
-          </cell>
-          <cell r="E50">
-            <v>-1.1955237887502291E-2</v>
-          </cell>
-          <cell r="F50">
-            <v>2.3124211606579165E-3</v>
-          </cell>
-          <cell r="G50">
-            <v>-0.70685370361912214</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>42902</v>
-          </cell>
-          <cell r="E51">
-            <v>-3.820724706665194E-3</v>
-          </cell>
-          <cell r="F51">
-            <v>1.484190140363093E-2</v>
-          </cell>
-          <cell r="G51">
-            <v>-0.72979994624872735</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>42905</v>
-          </cell>
-          <cell r="E52">
-            <v>2.7303467765234887E-2</v>
-          </cell>
-          <cell r="F52">
-            <v>-8.7820113285667061E-3</v>
-          </cell>
-          <cell r="G52">
-            <v>-0.62757592674091955</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>42906</v>
-          </cell>
-          <cell r="E53">
-            <v>8.5922961035914363E-4</v>
-          </cell>
-          <cell r="F53">
-            <v>-5.4522458927896622E-3</v>
-          </cell>
-          <cell r="G53">
-            <v>-0.74153036482154233</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>42907</v>
-          </cell>
-          <cell r="E54">
-            <v>8.5849196859418876E-4</v>
-          </cell>
-          <cell r="F54">
-            <v>-1.0626054182340087E-2</v>
-          </cell>
-          <cell r="G54">
-            <v>-0.77593126810981194</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>42908</v>
-          </cell>
-          <cell r="E55">
-            <v>4.5662179795811844E-3</v>
-          </cell>
-          <cell r="F55">
-            <v>-4.4302312184133271E-3</v>
-          </cell>
-          <cell r="G55">
-            <v>-0.73452024630667634</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>42909</v>
-          </cell>
-          <cell r="E56">
-            <v>1.3012913470773189E-2</v>
-          </cell>
-          <cell r="F56">
-            <v>6.5154818973521579E-3</v>
-          </cell>
-          <cell r="G56">
-            <v>-0.7365726887956543</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>42912</v>
-          </cell>
-          <cell r="E57">
-            <v>-1.3867492642565206E-2</v>
-          </cell>
-          <cell r="F57">
-            <v>-4.544066768967671E-3</v>
-          </cell>
-          <cell r="G57">
-            <v>-0.44803015304708582</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>42913</v>
-          </cell>
-          <cell r="E58">
-            <v>-5.142868478179261E-3</v>
-          </cell>
-          <cell r="F58">
-            <v>-1.6014786299304903E-3</v>
-          </cell>
-          <cell r="G58">
-            <v>-0.1812968165319164</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>42914</v>
-          </cell>
-          <cell r="E59">
-            <v>1.1392888823350596E-2</v>
-          </cell>
-          <cell r="F59">
-            <v>5.1647925925661833E-3</v>
-          </cell>
-          <cell r="G59">
-            <v>-0.20792281133512044</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>42915</v>
-          </cell>
-          <cell r="E60">
-            <v>-2.2917072830383144E-2</v>
-          </cell>
-          <cell r="F60">
-            <v>-1.0232475398916309E-2</v>
-          </cell>
-          <cell r="G60">
-            <v>-0.14599447374951668</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>42916</v>
-          </cell>
-          <cell r="E61">
-            <v>1.1810593861489468E-2</v>
-          </cell>
-          <cell r="F61">
-            <v>3.7167813102114268E-4</v>
-          </cell>
-          <cell r="G61">
-            <v>0.13430343335374037</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>42919</v>
-          </cell>
-          <cell r="E62">
-            <v>-9.2060489077228497E-3</v>
-          </cell>
-          <cell r="F62">
-            <v>1.6827763051458361E-2</v>
-          </cell>
-          <cell r="G62">
-            <v>0.35156263714567138</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>42921</v>
-          </cell>
-          <cell r="E63">
-            <v>3.4622077284707912E-3</v>
-          </cell>
-          <cell r="F63">
-            <v>-1.5342430435266731E-2</v>
-          </cell>
-          <cell r="G63">
-            <v>0.28554456530033184</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>42922</v>
-          </cell>
-          <cell r="E64">
-            <v>-2.0073401279335053E-2</v>
-          </cell>
-          <cell r="F64">
-            <v>-9.070075225498261E-3</v>
-          </cell>
-          <cell r="G64">
-            <v>0.19978733839558424</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>42923</v>
-          </cell>
-          <cell r="E65">
-            <v>5.8599640292793746E-3</v>
-          </cell>
-          <cell r="F65">
-            <v>1.2473495442891628E-3</v>
-          </cell>
-          <cell r="G65">
-            <v>0.32010853051845639</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>42926</v>
-          </cell>
-          <cell r="E66">
-            <v>2.3387813526096875E-2</v>
-          </cell>
-          <cell r="F66">
-            <v>-7.4822300535211947E-4</v>
-          </cell>
-          <cell r="G66">
-            <v>0.35745958636110647</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>42927</v>
-          </cell>
-          <cell r="E67">
-            <v>4.2716852653029748E-3</v>
-          </cell>
-          <cell r="F67">
-            <v>5.4740121760278072E-3</v>
-          </cell>
-          <cell r="G67">
-            <v>0.24915654575706864</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>42928</v>
-          </cell>
-          <cell r="E68">
-            <v>2.3589973426508117E-2</v>
-          </cell>
-          <cell r="F68">
-            <v>4.4565560265728268E-3</v>
-          </cell>
-          <cell r="G68">
-            <v>0.24449762779394771</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>42929</v>
-          </cell>
-          <cell r="E69">
-            <v>1.2960335828444001E-2</v>
-          </cell>
-          <cell r="F69">
-            <v>1.2351015886757691E-4</v>
-          </cell>
-          <cell r="G69">
-            <v>0.29167238405010182</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>42930</v>
-          </cell>
-          <cell r="E70">
-            <v>1.5765480109208453E-2</v>
-          </cell>
-          <cell r="F70">
-            <v>3.8212681321487594E-3</v>
-          </cell>
-          <cell r="G70">
-            <v>0.26579933392995697</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>42933</v>
-          </cell>
-          <cell r="E71">
-            <v>-8.0938895555858405E-4</v>
-          </cell>
-          <cell r="F71">
-            <v>-5.1807196175469965E-3</v>
-          </cell>
-          <cell r="G71">
-            <v>0.10109805102033473</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>42934</v>
-          </cell>
-          <cell r="E72">
-            <v>-6.7705065672106022E-3</v>
-          </cell>
-          <cell r="F72">
-            <v>-3.2206147000422834E-3</v>
-          </cell>
-          <cell r="G72">
-            <v>0.13616472434692858</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>42935</v>
-          </cell>
-          <cell r="E73">
-            <v>7.5798955227691714E-3</v>
-          </cell>
-          <cell r="F73">
-            <v>3.096936510533191E-3</v>
-          </cell>
-          <cell r="G73">
-            <v>0.56062615901923274</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>42936</v>
-          </cell>
-          <cell r="E74">
-            <v>2.6932415956435027E-3</v>
-          </cell>
-          <cell r="F74">
-            <v>1.2367818950902816E-4</v>
-          </cell>
-          <cell r="G74">
-            <v>0.72531297245169646</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>42937</v>
-          </cell>
-          <cell r="E75">
-            <v>-1.5449555161153117E-2</v>
-          </cell>
-          <cell r="F75">
-            <v>-9.1937534150072064E-3</v>
-          </cell>
-          <cell r="G75">
-            <v>0.48349933337109646</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>42940</v>
-          </cell>
-          <cell r="E76">
-            <v>-6.0274155080763938E-3</v>
-          </cell>
-          <cell r="F76">
-            <v>-3.1251978683199014E-3</v>
-          </cell>
-          <cell r="G76">
-            <v>0.70283035543515393</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>42941</v>
-          </cell>
-          <cell r="E77">
-            <v>-1.9254578909758679E-3</v>
-          </cell>
-          <cell r="F77">
-            <v>4.9956392141878988E-3</v>
-          </cell>
-          <cell r="G77">
-            <v>0.82594377443313982</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>42942</v>
-          </cell>
-          <cell r="E78">
-            <v>1.9629856044886131E-2</v>
-          </cell>
-          <cell r="F78">
-            <v>1.2450200811417178E-3</v>
-          </cell>
-          <cell r="G78">
-            <v>0.7602335326919204</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>42943</v>
-          </cell>
-          <cell r="E79">
-            <v>-2.3768363813972012E-2</v>
-          </cell>
-          <cell r="F79">
-            <v>5.7072115211258632E-3</v>
-          </cell>
-          <cell r="G79">
-            <v>0.69245645531087474</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>42944</v>
-          </cell>
-          <cell r="E80">
-            <v>-6.3791646085937541E-3</v>
-          </cell>
-          <cell r="F80">
-            <v>-1.5334090895415667E-2</v>
-          </cell>
-          <cell r="G80">
-            <v>0.25509096215537413</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>42947</v>
-          </cell>
-          <cell r="E81">
-            <v>-5.8602093200945306E-3</v>
-          </cell>
-          <cell r="F81">
-            <v>5.5124168651955853E-3</v>
-          </cell>
-          <cell r="G81">
-            <v>0.17270521893852606</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>42948</v>
-          </cell>
-          <cell r="E82">
-            <v>5.0251362026729795E-3</v>
-          </cell>
-          <cell r="F82">
-            <v>1.6228703393276317E-3</v>
-          </cell>
-          <cell r="G82">
-            <v>0.15402048978174368</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>42949</v>
-          </cell>
-          <cell r="E83">
-            <v>-2.7851274375822668E-4</v>
-          </cell>
-          <cell r="F83">
-            <v>5.3492694577222744E-3</v>
-          </cell>
-          <cell r="G83">
-            <v>0.16461527633240708</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>42950</v>
-          </cell>
-          <cell r="E84">
-            <v>-5.3065338878760769E-3</v>
-          </cell>
-          <cell r="F84">
-            <v>-1.3656964069401081E-3</v>
-          </cell>
-          <cell r="G84">
-            <v>0.13784169008554945</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>42951</v>
-          </cell>
-          <cell r="E85">
-            <v>-2.5234837448415495E-3</v>
-          </cell>
-          <cell r="F85">
-            <v>-3.4847577268093165E-3</v>
-          </cell>
-          <cell r="G85">
-            <v>0.13771981934584437</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>42954</v>
-          </cell>
-          <cell r="E86">
-            <v>1.3662557427850918E-2</v>
-          </cell>
-          <cell r="F86">
-            <v>-6.2355804227852939E-4</v>
-          </cell>
-          <cell r="G86">
-            <v>-1.6942118241151525E-2</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>42955</v>
-          </cell>
-          <cell r="E87">
-            <v>6.8994340199117123E-3</v>
-          </cell>
-          <cell r="F87">
-            <v>-2.4981277043553646E-3</v>
-          </cell>
-          <cell r="G87">
-            <v>-5.6005555744009249E-2</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>42956</v>
-          </cell>
-          <cell r="E88">
-            <v>-7.7305741148552326E-3</v>
-          </cell>
-          <cell r="F88">
-            <v>3.1216857466338957E-3</v>
-          </cell>
-          <cell r="G88">
-            <v>-7.1104587770620994E-2</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>42957</v>
-          </cell>
-          <cell r="E89">
-            <v>-3.0390633705009204E-2</v>
-          </cell>
-          <cell r="F89">
-            <v>-1.5580161869343561E-2</v>
-          </cell>
-          <cell r="G89">
-            <v>-0.17788756422999788</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>42958</v>
-          </cell>
-          <cell r="E90">
-            <v>1.4275519911853237E-3</v>
-          </cell>
-          <cell r="F90">
-            <v>-9.6705168959696098E-3</v>
-          </cell>
-          <cell r="G90">
-            <v>0.54335994797728981</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>42961</v>
-          </cell>
-          <cell r="E91">
-            <v>4.2704691234525059E-3</v>
-          </cell>
-          <cell r="F91">
-            <v>2.5568908346932002E-4</v>
-          </cell>
-          <cell r="G91">
-            <v>0.50504309553084337</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>42962</v>
-          </cell>
-          <cell r="E92">
-            <v>1.4194466542260709E-3</v>
-          </cell>
-          <cell r="F92">
-            <v>-2.4316899420787725E-3</v>
-          </cell>
-          <cell r="G92">
-            <v>0.6015686895818203</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>42963</v>
-          </cell>
-          <cell r="E93">
-            <v>3.1157085111650088E-3</v>
-          </cell>
-          <cell r="F93">
-            <v>-7.3307511110993718E-3</v>
-          </cell>
-          <cell r="G93">
-            <v>0.58269491900263615</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>42964</v>
-          </cell>
-          <cell r="E94">
-            <v>-1.4528100562909744E-2</v>
-          </cell>
-          <cell r="F94">
-            <v>-1.5742210214393343E-2</v>
-          </cell>
-          <cell r="G94">
-            <v>0.58425531894705129</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>42965</v>
-          </cell>
-          <cell r="E95">
-            <v>-1.7231480426823269E-3</v>
-          </cell>
-          <cell r="F95">
-            <v>4.9705792331873316E-3</v>
-          </cell>
-          <cell r="G95">
-            <v>0.66987832166659911</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>42968</v>
-          </cell>
-          <cell r="E96">
-            <v>-1.5935437890309191E-2</v>
-          </cell>
-          <cell r="F96">
-            <v>-3.3982518652350365E-3</v>
-          </cell>
-          <cell r="G96">
-            <v>0.60654287392713713</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>42969</v>
-          </cell>
-          <cell r="E97">
-            <v>1.6510150549806254E-2</v>
-          </cell>
-          <cell r="F97">
-            <v>4.7022030214361023E-3</v>
-          </cell>
-          <cell r="G97">
-            <v>0.54022966705072006</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>42970</v>
-          </cell>
-          <cell r="E98">
-            <v>2.2955533753352387E-3</v>
-          </cell>
-          <cell r="F98">
-            <v>-1.6954682900766893E-3</v>
-          </cell>
-          <cell r="G98">
-            <v>0.63245918890624675</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>42971</v>
-          </cell>
-          <cell r="E99">
-            <v>-2.8665615790382981E-4</v>
-          </cell>
-          <cell r="F99">
-            <v>-3.6615707183505096E-3</v>
-          </cell>
-          <cell r="G99">
-            <v>0.70928762059538453</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>42972</v>
-          </cell>
-          <cell r="E100">
-            <v>-5.750447128437826E-3</v>
-          </cell>
-          <cell r="F100">
-            <v>5.0963847648037106E-3</v>
-          </cell>
-          <cell r="G100">
-            <v>0.56423575335869214</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>42975</v>
-          </cell>
-          <cell r="E101">
-            <v>3.7415499110064693E-3</v>
-          </cell>
-          <cell r="F101">
-            <v>-3.2639235190489693E-3</v>
-          </cell>
-          <cell r="G101">
-            <v>0.50386981881855475</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>42976</v>
-          </cell>
-          <cell r="E102">
-            <v>1.114138078070399E-2</v>
-          </cell>
-          <cell r="F102">
-            <v>-2.6157468106242302E-4</v>
-          </cell>
-          <cell r="G102">
-            <v>0.47462643603436006</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103">
-            <v>42977</v>
-          </cell>
-          <cell r="E103">
-            <v>1.382445489801735E-2</v>
-          </cell>
-          <cell r="F103">
-            <v>-4.5886675074312787E-3</v>
-          </cell>
-          <cell r="G103">
-            <v>0.47596112420280201</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104">
-            <v>42978</v>
-          </cell>
-          <cell r="E104">
-            <v>1.225300765748011E-2</v>
-          </cell>
-          <cell r="F104">
-            <v>3.0177809427389944E-3</v>
-          </cell>
-          <cell r="G104">
-            <v>0.41650721798915014</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>42979</v>
-          </cell>
-          <cell r="E105">
-            <v>6.0706588199794052E-3</v>
-          </cell>
-          <cell r="F105">
-            <v>3.1393093146529607E-3</v>
-          </cell>
-          <cell r="G105">
-            <v>0.12821817843922201</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>42983</v>
-          </cell>
-          <cell r="E106">
-            <v>-7.178385324831095E-3</v>
-          </cell>
-          <cell r="F106">
-            <v>7.9350009844408077E-3</v>
-          </cell>
-          <cell r="G106">
-            <v>0.24185718306681722</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>42984</v>
-          </cell>
-          <cell r="E107">
-            <v>1.8394478832788969E-2</v>
-          </cell>
-          <cell r="F107">
-            <v>2.0518801433287062E-2</v>
-          </cell>
-          <cell r="G107">
-            <v>-0.28001538127094405</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>42985</v>
-          </cell>
-          <cell r="E108">
-            <v>3.3438985513671173E-2</v>
-          </cell>
-          <cell r="F108">
-            <v>3.1683696741241431E-3</v>
-          </cell>
-          <cell r="G108">
-            <v>0.21408149721845518</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>42986</v>
-          </cell>
-          <cell r="E109">
-            <v>-5.8047656397596974E-3</v>
-          </cell>
-          <cell r="F109">
-            <v>-2.6607554500264015E-3</v>
-          </cell>
-          <cell r="G109">
-            <v>0.13602366618711173</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>42989</v>
-          </cell>
-          <cell r="E110">
-            <v>7.9072631291152648E-3</v>
-          </cell>
-          <cell r="F110">
-            <v>5.4406409905323532E-3</v>
-          </cell>
-          <cell r="G110">
-            <v>0.16011874648602051</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111">
-            <v>42990</v>
-          </cell>
-          <cell r="E111">
-            <v>2.3600378070887124E-3</v>
-          </cell>
-          <cell r="F111">
-            <v>3.1496089028962013E-3</v>
-          </cell>
-          <cell r="G111">
-            <v>0.20562427728588722</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112">
-            <v>42991</v>
-          </cell>
-          <cell r="E112">
-            <v>2.3544811400093191E-3</v>
-          </cell>
-          <cell r="F112">
-            <v>3.3904722627517642E-3</v>
-          </cell>
-          <cell r="G112">
-            <v>0.16717517576385524</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113">
-            <v>42992</v>
-          </cell>
-          <cell r="E113">
-            <v>1.0446592749467026E-3</v>
-          </cell>
-          <cell r="F113">
-            <v>4.0035084125527639E-3</v>
-          </cell>
-          <cell r="G113">
-            <v>0.18832701912512273</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114">
-            <v>42993</v>
-          </cell>
-          <cell r="E114">
-            <v>2.3465008811233909E-3</v>
-          </cell>
-          <cell r="F114">
-            <v>-2.4975025104861031E-4</v>
-          </cell>
-          <cell r="G114">
-            <v>0.30474909087503205</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115">
-            <v>42996</v>
-          </cell>
-          <cell r="E115">
-            <v>-2.6045058097481927E-4</v>
-          </cell>
-          <cell r="F115">
-            <v>2.4975025104851295E-4</v>
-          </cell>
-          <cell r="G115">
-            <v>0.345192114009572</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116">
-            <v>42997</v>
-          </cell>
-          <cell r="E116">
-            <v>5.1961665368211781E-3</v>
-          </cell>
-          <cell r="F116">
-            <v>1.6218580063159461E-3</v>
-          </cell>
-          <cell r="G116">
-            <v>0.37110439200963813</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117">
-            <v>42998</v>
-          </cell>
-          <cell r="E117">
-            <v>-1.2965125633071764E-3</v>
-          </cell>
-          <cell r="F117">
-            <v>4.1052492810766143E-3</v>
-          </cell>
-          <cell r="G117">
-            <v>0.48362962382288144</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118">
-            <v>42999</v>
-          </cell>
-          <cell r="E118">
-            <v>-7.5531027136754563E-3</v>
-          </cell>
-          <cell r="F118">
-            <v>-8.227421129032823E-3</v>
-          </cell>
-          <cell r="G118">
-            <v>0.34266727332275559</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119">
-            <v>43000</v>
-          </cell>
-          <cell r="E119">
-            <v>1.0452052166583835E-3</v>
-          </cell>
-          <cell r="F119">
-            <v>3.7544584634753331E-4</v>
-          </cell>
-          <cell r="G119">
-            <v>0.79352410647275162</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120">
-            <v>43003</v>
-          </cell>
-          <cell r="E120">
-            <v>-1.3408903415839604E-2</v>
-          </cell>
-          <cell r="F120">
-            <v>1.3176076263716936E-2</v>
-          </cell>
-          <cell r="G120">
-            <v>0.7683222181228917</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121">
-            <v>43004</v>
-          </cell>
-          <cell r="E121">
-            <v>1.8511178100943332E-3</v>
-          </cell>
-          <cell r="F121">
-            <v>-1.1120035741538623E-3</v>
-          </cell>
-          <cell r="G121">
-            <v>-0.2814734541677838</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122">
-            <v>43005</v>
-          </cell>
-          <cell r="E122">
-            <v>5.2701044242370234E-3</v>
-          </cell>
-          <cell r="F122">
-            <v>6.6535484491787979E-3</v>
-          </cell>
-          <cell r="G122">
-            <v>-0.32393177248066313</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123">
-            <v>43006</v>
-          </cell>
-          <cell r="E123">
-            <v>-8.4455503314757544E-3</v>
-          </cell>
-          <cell r="F123">
-            <v>9.2898846813685067E-3</v>
-          </cell>
-          <cell r="G123">
-            <v>-0.21559631937245244</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124">
-            <v>43007</v>
-          </cell>
-          <cell r="E124">
-            <v>1.9163206184414649E-2</v>
-          </cell>
-          <cell r="F124">
-            <v>-2.5583250842170623E-3</v>
-          </cell>
-          <cell r="G124">
-            <v>-0.34766207479005629</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125">
-            <v>43010</v>
-          </cell>
-          <cell r="E125">
-            <v>6.9957533660269956E-3</v>
-          </cell>
-          <cell r="F125">
-            <v>-4.2784736129269883E-3</v>
-          </cell>
-          <cell r="G125">
-            <v>-0.41596433928205134</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126">
-            <v>43011</v>
-          </cell>
-          <cell r="E126">
-            <v>-5.1652893710396684E-4</v>
-          </cell>
-          <cell r="F126">
-            <v>1.5912849921298233E-3</v>
-          </cell>
-          <cell r="G126">
-            <v>-0.46324624763822203</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127">
-            <v>43012</v>
-          </cell>
-          <cell r="E127">
-            <v>-1.2924908093720382E-3</v>
-          </cell>
-          <cell r="F127">
-            <v>3.6686029148841738E-4</v>
-          </cell>
-          <cell r="G127">
-            <v>-0.46623440598827265</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128">
-            <v>43013</v>
-          </cell>
-          <cell r="E128">
-            <v>8.499729214321166E-3</v>
-          </cell>
-          <cell r="F128">
-            <v>2.8081332170303915E-3</v>
-          </cell>
-          <cell r="G128">
-            <v>-0.45741436182470607</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129">
-            <v>43014</v>
-          </cell>
-          <cell r="E129">
-            <v>-4.6272576136910451E-3</v>
-          </cell>
-          <cell r="F129">
-            <v>-3.7867265672971682E-3</v>
-          </cell>
-          <cell r="G129">
-            <v>-0.73412844998912374</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130">
-            <v>43017</v>
-          </cell>
-          <cell r="E130">
-            <v>4.627257613690961E-3</v>
-          </cell>
-          <cell r="F130">
-            <v>3.9086406180425335E-3</v>
-          </cell>
-          <cell r="G130">
-            <v>-0.59685476767967416</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131">
-            <v>43018</v>
-          </cell>
-          <cell r="E131">
-            <v>-3.8545595713817796E-3</v>
-          </cell>
-          <cell r="F131">
-            <v>2.7999287876194867E-3</v>
-          </cell>
-          <cell r="G131">
-            <v>-0.34364791867953887</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132">
-            <v>43019</v>
-          </cell>
-          <cell r="E132">
-            <v>-1.3739684710566538E-2</v>
-          </cell>
-          <cell r="F132">
-            <v>4.1247177246542715E-3</v>
-          </cell>
-          <cell r="G132">
-            <v>-0.37101507403607364</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133">
-            <v>43020</v>
-          </cell>
-          <cell r="E133">
-            <v>-5.7591782220448983E-3</v>
-          </cell>
-          <cell r="F133">
-            <v>-2.0602322017960637E-3</v>
-          </cell>
-          <cell r="G133">
-            <v>-0.49856817254496455</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134">
-            <v>43021</v>
-          </cell>
-          <cell r="E134">
-            <v>6.8027473227523999E-3</v>
-          </cell>
-          <cell r="F134">
-            <v>-2.4265954984408703E-4</v>
-          </cell>
-          <cell r="G134">
-            <v>-0.297082202559178</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135">
-            <v>43024</v>
-          </cell>
-          <cell r="E135">
-            <v>-1.5239391088899608E-2</v>
-          </cell>
-          <cell r="F135">
-            <v>4.8420382703165104E-3</v>
-          </cell>
-          <cell r="G135">
-            <v>-0.14099104219504824</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136">
-            <v>43025</v>
-          </cell>
-          <cell r="E136">
-            <v>-7.4409059765448444E-3</v>
-          </cell>
-          <cell r="F136">
-            <v>1.8097368756630078E-3</v>
-          </cell>
-          <cell r="G136">
-            <v>-0.18172420292365013</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137">
-            <v>43026</v>
-          </cell>
-          <cell r="E137">
-            <v>1.2722143495890226E-2</v>
-          </cell>
-          <cell r="F137">
-            <v>-2.4137110439294862E-3</v>
-          </cell>
-          <cell r="G137">
-            <v>-0.18891454066234858</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138">
-            <v>43027</v>
-          </cell>
-          <cell r="E138">
-            <v>-1.8071180052981556E-2</v>
-          </cell>
-          <cell r="F138">
-            <v>-2.416918440769055E-4</v>
-          </cell>
-          <cell r="G138">
-            <v>-0.35837570641981531</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139">
-            <v>43028</v>
-          </cell>
-          <cell r="E139">
-            <v>8.5447782915155264E-3</v>
-          </cell>
-          <cell r="F139">
-            <v>4.4618705316696239E-3</v>
-          </cell>
-          <cell r="G139">
-            <v>-0.35007116089894968</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140">
-            <v>43031</v>
-          </cell>
-          <cell r="E140">
-            <v>-2.0957242025271126E-2</v>
-          </cell>
-          <cell r="F140">
-            <v>1.5629699604985726E-3</v>
-          </cell>
-          <cell r="G140">
-            <v>-0.22864463963007972</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141">
-            <v>43032</v>
-          </cell>
-          <cell r="E141">
-            <v>-2.44665066999427E-3</v>
-          </cell>
-          <cell r="F141">
-            <v>2.7592843372116439E-3</v>
-          </cell>
-          <cell r="G141">
-            <v>-0.29346028454253514</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142">
-            <v>43033</v>
-          </cell>
-          <cell r="E142">
-            <v>-1.6344323987155865E-3</v>
-          </cell>
-          <cell r="F142">
-            <v>-3.2399380354823748E-3</v>
-          </cell>
-          <cell r="G142">
-            <v>-0.28662936528778604</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143">
-            <v>43034</v>
-          </cell>
-          <cell r="E143">
-            <v>5.9799036582173261E-3</v>
-          </cell>
-          <cell r="F143">
-            <v>3.2399380354822325E-3</v>
-          </cell>
-          <cell r="G143">
-            <v>-0.23235372904486551</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144">
-            <v>43035</v>
-          </cell>
-          <cell r="E144">
-            <v>-2.7137058715962729E-3</v>
-          </cell>
-          <cell r="F144">
-            <v>2.8711588093197149E-3</v>
-          </cell>
-          <cell r="G144">
-            <v>-0.17705570207423202</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145">
-            <v>43038</v>
-          </cell>
-          <cell r="E145">
-            <v>5.4200674693393345E-3</v>
-          </cell>
-          <cell r="F145">
-            <v>-2.032885602935585E-3</v>
-          </cell>
-          <cell r="G145">
-            <v>-0.11947128341337621</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146">
-            <v>43039</v>
-          </cell>
-          <cell r="E146">
-            <v>1.7149402072954487E-2</v>
-          </cell>
-          <cell r="F146">
-            <v>-2.2769498722263661E-3</v>
-          </cell>
-          <cell r="G146">
-            <v>-6.4766550945627679E-2</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147">
-            <v>43040</v>
-          </cell>
-          <cell r="E147">
-            <v>-2.6602835588162119E-3</v>
-          </cell>
-          <cell r="F147">
-            <v>6.2193717995172202E-3</v>
-          </cell>
-          <cell r="G147">
-            <v>-0.19930089970532069</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148">
-            <v>43041</v>
-          </cell>
-          <cell r="E148">
-            <v>-3.7363267378765067E-3</v>
-          </cell>
-          <cell r="F148">
-            <v>-4.0621322285052759E-3</v>
-          </cell>
-          <cell r="G148">
-            <v>-9.6010081002716505E-2</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149">
-            <v>43042</v>
-          </cell>
-          <cell r="E149">
-            <v>2.6702285558788921E-3</v>
-          </cell>
-          <cell r="F149">
-            <v>-4.1989144530492012E-3</v>
-          </cell>
-          <cell r="G149">
-            <v>-0.12006810337206192</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150">
-            <v>43045</v>
-          </cell>
-          <cell r="E150">
-            <v>-3.4726894789726664E-3</v>
-          </cell>
-          <cell r="F150">
-            <v>6.8292363904101884E-3</v>
-          </cell>
-          <cell r="G150">
-            <v>-0.26603493985220072</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151">
-            <v>43046</v>
-          </cell>
-          <cell r="E151">
-            <v>1.0698048626621459E-3</v>
-          </cell>
-          <cell r="F151">
-            <v>-2.0319136854065386E-3</v>
-          </cell>
-          <cell r="G151">
-            <v>-0.33692925102355031</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>43048</v>
-          </cell>
-          <cell r="E152">
-            <v>-4.7067510857985738E-2</v>
-          </cell>
-          <cell r="F152">
-            <v>4.6553351757024561E-3</v>
-          </cell>
-          <cell r="G152">
-            <v>-0.29923320674166076</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>43049</v>
-          </cell>
-          <cell r="E153">
-            <v>7.8147202054635583E-3</v>
-          </cell>
-          <cell r="F153">
-            <v>-1.2342137377236563E-2</v>
-          </cell>
-          <cell r="G153">
-            <v>-0.41792740651661964</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>43052</v>
-          </cell>
-          <cell r="E154">
-            <v>-3.3416906619031018E-3</v>
-          </cell>
-          <cell r="F154">
-            <v>-6.0302721480040491E-4</v>
-          </cell>
-          <cell r="G154">
-            <v>-0.47759341891223706</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>43053</v>
-          </cell>
-          <cell r="E155">
-            <v>-1.7729463977569342E-2</v>
-          </cell>
-          <cell r="F155">
-            <v>-7.8726258965799607E-3</v>
-          </cell>
-          <cell r="G155">
-            <v>-0.48789926632589947</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>43054</v>
-          </cell>
-          <cell r="E156">
-            <v>2.268860871191004E-3</v>
-          </cell>
-          <cell r="F156">
-            <v>-1.2603409412535538E-2</v>
-          </cell>
-          <cell r="G156">
-            <v>-0.34329495002645954</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157">
-            <v>43055</v>
-          </cell>
-          <cell r="E157">
-            <v>9.0243139222646231E-3</v>
-          </cell>
-          <cell r="F157">
-            <v>-8.036143884012522E-3</v>
-          </cell>
-          <cell r="G157">
-            <v>-0.4061775026475819</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158">
-            <v>43056</v>
-          </cell>
-          <cell r="E158">
-            <v>-1.1235956238264547E-3</v>
-          </cell>
-          <cell r="F158">
-            <v>-3.9801047566268098E-3</v>
-          </cell>
-          <cell r="G158">
-            <v>-0.52546500928728301</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159">
-            <v>43059</v>
-          </cell>
-          <cell r="E159">
-            <v>-1.4062722047533443E-3</v>
-          </cell>
-          <cell r="F159">
-            <v>3.8559659693033557E-3</v>
-          </cell>
-          <cell r="G159">
-            <v>-0.52373155258483017</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160">
-            <v>43060</v>
-          </cell>
-          <cell r="E160">
-            <v>1.2029799570483786E-2</v>
-          </cell>
-          <cell r="F160">
-            <v>3.9648174847473853E-3</v>
-          </cell>
-          <cell r="G160">
-            <v>-0.46225604629087219</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161">
-            <v>43061</v>
-          </cell>
-          <cell r="E161">
-            <v>-5.5632824800662232E-4</v>
-          </cell>
-          <cell r="F161">
-            <v>2.8400340136363346E-3</v>
-          </cell>
-          <cell r="G161">
-            <v>-0.3574555664966465</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>43063</v>
-          </cell>
-          <cell r="E162">
-            <v>-2.7862932486830629E-3</v>
-          </cell>
-          <cell r="F162">
-            <v>3.9379819534655896E-3</v>
-          </cell>
-          <cell r="G162">
-            <v>-0.32938728541598061</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
-            <v>43066</v>
-          </cell>
-          <cell r="E163">
-            <v>4.176533984209546E-3</v>
-          </cell>
-          <cell r="F163">
-            <v>-3.814684992579451E-3</v>
-          </cell>
-          <cell r="G163">
-            <v>-1.7379423246071439E-2</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164">
-            <v>43067</v>
-          </cell>
-          <cell r="E164">
-            <v>-1.3708425609569221E-2</v>
-          </cell>
-          <cell r="F164">
-            <v>6.880479287930885E-3</v>
-          </cell>
-          <cell r="G164">
-            <v>0.1384433055537348</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165">
-            <v>43068</v>
-          </cell>
-          <cell r="E165">
-            <v>-3.2057696526666846E-2</v>
-          </cell>
-          <cell r="F165">
-            <v>7.3197838106544514E-3</v>
-          </cell>
-          <cell r="G165">
-            <v>-9.5595729327581244E-2</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166">
-            <v>43069</v>
-          </cell>
-          <cell r="E166">
-            <v>8.3997597422288978E-3</v>
-          </cell>
-          <cell r="F166">
-            <v>1.2321972766410392E-2</v>
-          </cell>
-          <cell r="G166">
-            <v>-0.53980988469196634</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167">
-            <v>43070</v>
-          </cell>
-          <cell r="E167">
-            <v>1.517132290711936E-2</v>
-          </cell>
-          <cell r="F167">
-            <v>2.0389812161572818E-3</v>
-          </cell>
-          <cell r="G167">
-            <v>-0.3279928727073303</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168">
-            <v>43073</v>
-          </cell>
-          <cell r="E168">
-            <v>1.4104606181541945E-2</v>
-          </cell>
-          <cell r="F168">
-            <v>1.317128849938156E-3</v>
-          </cell>
-          <cell r="G168">
-            <v>-0.22307618877145829</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169">
-            <v>43074</v>
-          </cell>
-          <cell r="E169">
-            <v>3.0618858605336259E-2</v>
-          </cell>
-          <cell r="F169">
-            <v>-8.1701764099098555E-3</v>
-          </cell>
-          <cell r="G169">
-            <v>-0.31812034686145801</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170">
-            <v>43075</v>
-          </cell>
-          <cell r="E170">
-            <v>5.4318306604413721E-4</v>
-          </cell>
-          <cell r="F170">
-            <v>-7.3863628186784814E-3</v>
-          </cell>
-          <cell r="G170">
-            <v>-0.56759023003795972</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171">
-            <v>43076</v>
-          </cell>
-          <cell r="E171">
-            <v>5.4288817837176131E-4</v>
-          </cell>
-          <cell r="F171">
-            <v>3.2761055813804586E-3</v>
-          </cell>
-          <cell r="G171">
-            <v>-0.49558636013866264</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172">
-            <v>43077</v>
-          </cell>
-          <cell r="E172">
-            <v>2.1477335610556876E-2</v>
-          </cell>
-          <cell r="F172">
-            <v>1.331638717449235E-3</v>
-          </cell>
-          <cell r="G172">
-            <v>-0.49500477906575058</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173">
-            <v>43080</v>
-          </cell>
-          <cell r="E173">
-            <v>-3.4588301078785672E-3</v>
-          </cell>
-          <cell r="F173">
-            <v>4.4661791903529563E-3</v>
-          </cell>
-          <cell r="G173">
-            <v>-0.46523853647323959</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174">
-            <v>43081</v>
-          </cell>
-          <cell r="E174">
-            <v>-2.1344725286327922E-3</v>
-          </cell>
-          <cell r="F174">
-            <v>-3.2571353965969154E-3</v>
-          </cell>
-          <cell r="G174">
-            <v>-0.49875951044957151</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175">
-            <v>43082</v>
-          </cell>
-          <cell r="E175">
-            <v>-1.0689471889050444E-3</v>
-          </cell>
-          <cell r="F175">
-            <v>4.3404939136295756E-3</v>
-          </cell>
-          <cell r="G175">
-            <v>-0.39392535102819493</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176">
-            <v>43083</v>
-          </cell>
-          <cell r="E176">
-            <v>5.3333459753626029E-3</v>
-          </cell>
-          <cell r="F176">
-            <v>-2.6502846497226808E-3</v>
-          </cell>
-          <cell r="G176">
-            <v>-0.26985028149694473</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177">
-            <v>43084</v>
-          </cell>
-          <cell r="E177">
-            <v>2.0271853863012029E-2</v>
-          </cell>
-          <cell r="F177">
-            <v>1.5669261326898261E-3</v>
-          </cell>
-          <cell r="G177">
-            <v>-0.33658807667495344</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178">
-            <v>43087</v>
-          </cell>
-          <cell r="E178">
-            <v>-4.9640859612593751E-3</v>
-          </cell>
-          <cell r="F178">
-            <v>-1.0845334557040901E-3</v>
-          </cell>
-          <cell r="G178">
-            <v>-0.31139788401528762</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179">
-            <v>43088</v>
-          </cell>
-          <cell r="E179">
-            <v>-9.4737550672901547E-3</v>
-          </cell>
-          <cell r="F179">
-            <v>-6.0466987959770157E-3</v>
-          </cell>
-          <cell r="G179">
-            <v>-0.31443339649011487</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180">
-            <v>43089</v>
-          </cell>
-          <cell r="E180">
-            <v>2.9042924704960472E-3</v>
-          </cell>
-          <cell r="F180">
-            <v>5.2023588386928814E-3</v>
-          </cell>
-          <cell r="G180">
-            <v>0.27562169000452752</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181">
-            <v>43090</v>
-          </cell>
-          <cell r="E181">
-            <v>-3.1687377979659711E-3</v>
-          </cell>
-          <cell r="F181">
-            <v>1.1756373408266565E-2</v>
-          </cell>
-          <cell r="G181">
-            <v>0.25898368531528965</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182">
-            <v>43091</v>
-          </cell>
-          <cell r="E182">
-            <v>-1.3232766255416419E-3</v>
-          </cell>
-          <cell r="F182">
-            <v>1.4301039262540809E-3</v>
-          </cell>
-          <cell r="G182">
-            <v>6.8870765028747824E-2</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183">
-            <v>43095</v>
-          </cell>
-          <cell r="E183">
-            <v>4.7556232295682226E-3</v>
-          </cell>
-          <cell r="F183">
-            <v>1.1908306057533504E-4</v>
-          </cell>
-          <cell r="G183">
-            <v>0.10251496767788391</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184">
-            <v>43096</v>
-          </cell>
-          <cell r="E184">
-            <v>-8.7359920246230533E-3</v>
-          </cell>
-          <cell r="F184">
-            <v>-9.5306178288672696E-4</v>
-          </cell>
-          <cell r="G184">
-            <v>0.12588368699725944</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185">
-            <v>43097</v>
-          </cell>
-          <cell r="E185">
-            <v>8.2087049045761838E-3</v>
-          </cell>
-          <cell r="F185">
-            <v>1.4292522680752866E-3</v>
-          </cell>
-          <cell r="G185">
-            <v>0.1427010649802046</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186">
-            <v>43098</v>
-          </cell>
-          <cell r="E186">
-            <v>-4.7581374464169233E-3</v>
-          </cell>
-          <cell r="F186">
-            <v>-4.5329911808031208E-3</v>
-          </cell>
-          <cell r="G186">
-            <v>0.16092456066556937</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187">
-            <v>43102</v>
-          </cell>
-          <cell r="E187">
-            <v>8.4433219275992927E-3</v>
-          </cell>
-          <cell r="F187">
-            <v>1.6482260837268295E-2</v>
-          </cell>
-          <cell r="G187">
-            <v>0.27020586474191727</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188">
-            <v>43103</v>
-          </cell>
-          <cell r="E188">
-            <v>3.0022958900196645E-2</v>
-          </cell>
-          <cell r="F188">
-            <v>1.944974838879495E-2</v>
-          </cell>
-          <cell r="G188">
-            <v>0.57660273135130347</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189">
-            <v>43104</v>
-          </cell>
-          <cell r="E189">
-            <v>-1.6712048548063751E-2</v>
-          </cell>
-          <cell r="F189">
-            <v>1.3831260849511257E-3</v>
-          </cell>
-          <cell r="G189">
-            <v>0.75186185142987672</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="B190">
-            <v>43105</v>
-          </cell>
-          <cell r="E190">
-            <v>2.8624494574837515E-2</v>
-          </cell>
-          <cell r="F190">
-            <v>-8.0659104447879722E-4</v>
-          </cell>
-          <cell r="G190">
-            <v>0.68180112653548042</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="B191">
-            <v>43108</v>
-          </cell>
-          <cell r="E191">
-            <v>2.7676454954179259E-3</v>
-          </cell>
-          <cell r="F191">
-            <v>4.4856018623275606E-3</v>
-          </cell>
-          <cell r="G191">
-            <v>0.4218424096612256</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="B192">
-            <v>43109</v>
-          </cell>
-          <cell r="E192">
-            <v>-6.8070349817977794E-3</v>
-          </cell>
-          <cell r="F192">
-            <v>-4.2550808838977688E-3</v>
-          </cell>
-          <cell r="G192">
-            <v>0.50656838441062879</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="B193">
-            <v>43110</v>
-          </cell>
-          <cell r="E193">
-            <v>-4.739978285462907E-2</v>
-          </cell>
-          <cell r="F193">
-            <v>-7.9838433919240722E-3</v>
-          </cell>
-          <cell r="G193">
-            <v>0.54005559933518743</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="B194">
-            <v>43111</v>
-          </cell>
-          <cell r="E194">
-            <v>2.9135234488764056E-3</v>
-          </cell>
-          <cell r="F194">
-            <v>9.8261006774988044E-3</v>
-          </cell>
-          <cell r="G194">
-            <v>0.64002408232720187</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="B195">
-            <v>43112</v>
-          </cell>
-          <cell r="E195">
-            <v>5.5387191574415642E-3</v>
-          </cell>
-          <cell r="F195">
-            <v>6.7641415826979476E-3</v>
-          </cell>
-          <cell r="G195">
-            <v>0.62360672683873564</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="B196">
-            <v>43116</v>
-          </cell>
-          <cell r="E196">
-            <v>-8.9828873521208951E-3</v>
-          </cell>
-          <cell r="F196">
-            <v>-6.3041070719972187E-3</v>
-          </cell>
-          <cell r="G196">
-            <v>0.6433048370772978</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="B197">
-            <v>43117</v>
-          </cell>
-          <cell r="E197">
-            <v>8.1935174913719197E-3</v>
-          </cell>
-          <cell r="F197">
-            <v>1.177358287653266E-2</v>
-          </cell>
-          <cell r="G197">
-            <v>0.65308850523561424</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="B198">
-            <v>43118</v>
-          </cell>
-          <cell r="E198">
-            <v>1.9549690779315704E-2</v>
-          </cell>
-          <cell r="F198">
-            <v>-6.4983412854067411E-3</v>
-          </cell>
-          <cell r="G198">
-            <v>0.67447649059560655</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="B199">
-            <v>43119</v>
-          </cell>
-          <cell r="E199">
-            <v>-8.0342534020973293E-3</v>
-          </cell>
-          <cell r="F199">
-            <v>-3.2077012267697313E-3</v>
-          </cell>
-          <cell r="G199">
-            <v>0.35288304461883108</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="B200">
-            <v>43122</v>
-          </cell>
-          <cell r="E200">
-            <v>2.9485535597667062E-2</v>
-          </cell>
-          <cell r="F200">
-            <v>1.2542923847376252E-2</v>
-          </cell>
-          <cell r="G200">
-            <v>0.38677059580957801</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="B201">
-            <v>43123</v>
-          </cell>
-          <cell r="E201">
-            <v>4.7889190451798043E-3</v>
-          </cell>
-          <cell r="F201">
-            <v>5.6641179650825752E-4</v>
-          </cell>
-          <cell r="G201">
-            <v>0.60240840214628877</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="B202">
-            <v>43124</v>
-          </cell>
-          <cell r="E202">
-            <v>1.2564394164509319E-3</v>
-          </cell>
-          <cell r="F202">
-            <v>2.6013700130435289E-3</v>
-          </cell>
-          <cell r="G202">
-            <v>0.59619223155348344</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="B203">
-            <v>43125</v>
-          </cell>
-          <cell r="E203">
-            <v>5.0100305195371862E-3</v>
-          </cell>
-          <cell r="F203">
-            <v>-1.8089320930446589E-3</v>
-          </cell>
-          <cell r="G203">
-            <v>0.58969468304285622</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="B204">
-            <v>43126</v>
-          </cell>
-          <cell r="E204">
-            <v>2.1506205220963463E-2</v>
-          </cell>
-          <cell r="F204">
-            <v>7.1038242022267977E-3</v>
-          </cell>
-          <cell r="G204">
-            <v>0.43640289421212269</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="B205">
-            <v>43129</v>
-          </cell>
-          <cell r="E205">
-            <v>-2.2034529664350204E-3</v>
-          </cell>
-          <cell r="F205">
-            <v>-1.1185925346419422E-2</v>
-          </cell>
-          <cell r="G205">
-            <v>0.54253106075578361</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="B206">
-            <v>43130</v>
-          </cell>
-          <cell r="E206">
-            <v>-9.8522964430115944E-3</v>
-          </cell>
-          <cell r="F206">
-            <v>-1.4074264015515748E-2</v>
-          </cell>
-          <cell r="G206">
-            <v>0.60485864725572158</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="B207">
-            <v>43131</v>
-          </cell>
-          <cell r="E207">
-            <v>4.4455494305643021E-3</v>
-          </cell>
-          <cell r="F207">
-            <v>5.9742824753517432E-3</v>
-          </cell>
-          <cell r="G207">
-            <v>0.65908983172353719</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="B208">
-            <v>43132</v>
-          </cell>
-          <cell r="E208">
-            <v>0.12948799004484537</v>
-          </cell>
-          <cell r="F208">
-            <v>2.0072114598221533E-2</v>
-          </cell>
-          <cell r="G208">
-            <v>0.68007626999246451</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="B209">
-            <v>43133</v>
-          </cell>
-          <cell r="E209">
-            <v>-4.1778647391424055E-2</v>
-          </cell>
-          <cell r="F209">
-            <v>-5.2316076502941768E-2</v>
-          </cell>
-          <cell r="G209">
-            <v>0.78799208538456011</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="B210">
-            <v>43136</v>
-          </cell>
-          <cell r="E210">
-            <v>-3.9130423775765082E-2</v>
-          </cell>
-          <cell r="F210">
-            <v>-5.8586005596242323E-2</v>
-          </cell>
-          <cell r="G210">
-            <v>0.7341027586332175</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="B211">
-            <v>43137</v>
-          </cell>
-          <cell r="E211">
-            <v>4.4501771534007613E-3</v>
-          </cell>
-          <cell r="F211">
-            <v>-1.733452654256417E-2</v>
-          </cell>
-          <cell r="G211">
-            <v>0.74533568252237536</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="B212">
-            <v>43138</v>
-          </cell>
-          <cell r="E212">
-            <v>-1.0808375895893146E-2</v>
-          </cell>
-          <cell r="F212">
-            <v>-1.8160071477880686E-2</v>
-          </cell>
-          <cell r="G212">
-            <v>0.75575919845922268</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="B213">
-            <v>43139</v>
-          </cell>
-          <cell r="E213">
-            <v>-3.1436301888597709E-2</v>
-          </cell>
-          <cell r="F213">
-            <v>-1.137192831493933E-2</v>
-          </cell>
-          <cell r="G213">
-            <v>0.78122773509979349</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="B214">
-            <v>43140</v>
-          </cell>
-          <cell r="E214">
-            <v>1.5001491102533491E-2</v>
-          </cell>
-          <cell r="F214">
-            <v>-3.8195634187549775E-3</v>
-          </cell>
-          <cell r="G214">
-            <v>0.75717396346957</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="B215">
-            <v>43143</v>
-          </cell>
-          <cell r="E215">
-            <v>1.6198543803275726E-2</v>
-          </cell>
-          <cell r="F215">
-            <v>8.4100364282992026E-3</v>
-          </cell>
-          <cell r="G215">
-            <v>0.76081487941269776</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="B216">
-            <v>43144</v>
-          </cell>
-          <cell r="E216">
-            <v>-4.0251031021795456E-3</v>
-          </cell>
-          <cell r="F216">
-            <v>-1.5715037283426383E-3</v>
-          </cell>
-          <cell r="G216">
-            <v>0.75149924707812588</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="B217">
-            <v>43145</v>
-          </cell>
-          <cell r="E217">
-            <v>6.8566292979179225E-3</v>
-          </cell>
-          <cell r="F217">
-            <v>2.0947899778553177E-3</v>
-          </cell>
-          <cell r="G217">
-            <v>0.73520841909205115</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="B218">
-            <v>43146</v>
-          </cell>
-          <cell r="E218">
-            <v>1.3341333049862489E-2</v>
-          </cell>
-          <cell r="F218">
-            <v>-3.2750405902406709E-3</v>
-          </cell>
-          <cell r="G218">
-            <v>0.74693873280474143</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="B219">
-            <v>43147</v>
-          </cell>
-          <cell r="E219">
-            <v>7.6433493125680659E-3</v>
-          </cell>
-          <cell r="F219">
-            <v>4.3207923195303583E-3</v>
-          </cell>
-          <cell r="G219">
-            <v>0.84550326973851941</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="B220">
-            <v>43151</v>
-          </cell>
-          <cell r="E220">
-            <v>1.1530037020462294E-3</v>
-          </cell>
-          <cell r="F220">
-            <v>-1.0375035608077723E-2</v>
-          </cell>
-          <cell r="G220">
-            <v>0.78559931480163736</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="B221">
-            <v>43152</v>
-          </cell>
-          <cell r="E221">
-            <v>-6.2420732095176496E-3</v>
-          </cell>
-          <cell r="F221">
-            <v>-1.1418074128202777E-2</v>
-          </cell>
-          <cell r="G221">
-            <v>0.55357965557858269</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="B222">
-            <v>43153</v>
-          </cell>
-          <cell r="E222">
-            <v>-6.748134973462069E-3</v>
-          </cell>
-          <cell r="F222">
-            <v>1.286916599947722E-2</v>
-          </cell>
-          <cell r="G222">
-            <v>0.6770046678373185</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="B223">
-            <v>43154</v>
-          </cell>
-          <cell r="E223">
-            <v>1.9651539809370087E-2</v>
-          </cell>
-          <cell r="F223">
-            <v>2.1775421970114745E-2</v>
-          </cell>
-          <cell r="G223">
-            <v>0.40224969609721961</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="B224">
-            <v>43157</v>
-          </cell>
-          <cell r="E224">
-            <v>3.4281829940681911E-3</v>
-          </cell>
-          <cell r="F224">
-            <v>1.6755524053651813E-2</v>
-          </cell>
-          <cell r="G224">
-            <v>0.40539310537752438</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="B225">
-            <v>43158</v>
-          </cell>
-          <cell r="E225">
-            <v>-1.5636096901280813E-2</v>
-          </cell>
-          <cell r="F225">
-            <v>-1.7142545925218172E-2</v>
-          </cell>
-          <cell r="G225">
-            <v>0.43053056424337938</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="B226">
-            <v>43159</v>
-          </cell>
-          <cell r="E226">
-            <v>-6.7434274840059791E-3</v>
-          </cell>
-          <cell r="F226">
-            <v>-2.297151388565263E-2</v>
-          </cell>
-          <cell r="G226">
-            <v>0.58757604541161512</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="B227">
-            <v>43160</v>
-          </cell>
-          <cell r="E227">
-            <v>-1.3861375466732301E-2</v>
-          </cell>
-          <cell r="F227">
-            <v>-7.1551915178545431E-3</v>
-          </cell>
-          <cell r="G227">
-            <v>0.62372522079612847</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="B228">
-            <v>43161</v>
-          </cell>
-          <cell r="E228">
-            <v>1.5959033851565736E-2</v>
-          </cell>
-          <cell r="F228">
-            <v>4.6434577629543691E-3</v>
-          </cell>
-          <cell r="G228">
-            <v>0.61612201316964743</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="B229">
-            <v>43164</v>
-          </cell>
-          <cell r="E229">
-            <v>5.5723385423453479E-3</v>
-          </cell>
-          <cell r="F229">
-            <v>9.4849874573987025E-3</v>
-          </cell>
-          <cell r="G229">
-            <v>0.66839078159389909</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="B230">
-            <v>43165</v>
-          </cell>
-          <cell r="E230">
-            <v>-1.1583460115993636E-3</v>
-          </cell>
-          <cell r="F230">
-            <v>-1.1807151256890531E-3</v>
-          </cell>
-          <cell r="G230">
-            <v>0.67568157423906805</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="B231">
-            <v>43166</v>
-          </cell>
-          <cell r="E231">
-            <v>1.814681702667794E-2</v>
-          </cell>
-          <cell r="F231">
-            <v>-2.5526512301523925E-2</v>
-          </cell>
-          <cell r="G231">
-            <v>0.70520510012864424</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="B232">
-            <v>43167</v>
-          </cell>
-          <cell r="E232">
-            <v>-5.7071265510386018E-3</v>
-          </cell>
-          <cell r="F232">
-            <v>-1.8870473317749656E-3</v>
-          </cell>
-          <cell r="G232">
-            <v>0.30674987143239513</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="B233">
-            <v>43168</v>
-          </cell>
-          <cell r="E233">
-            <v>2.97177038915748E-3</v>
-          </cell>
-          <cell r="F233">
-            <v>5.9187689601765863E-3</v>
-          </cell>
-          <cell r="G233">
-            <v>0.39018590795909386</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="B234">
-            <v>43171</v>
-          </cell>
-          <cell r="E234">
-            <v>2.0522182553185846E-3</v>
-          </cell>
-          <cell r="F234">
-            <v>9.0788340554937737E-3</v>
-          </cell>
-          <cell r="G234">
-            <v>0.19755071354295678</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="B235">
-            <v>43172</v>
-          </cell>
-          <cell r="E235">
-            <v>-2.4909036919588835E-2</v>
-          </cell>
-          <cell r="F235">
-            <v>-9.4812755392271152E-3</v>
-          </cell>
-          <cell r="G235">
-            <v>0.18210293632171537</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="B236">
-            <v>43173</v>
-          </cell>
-          <cell r="E236">
-            <v>2.3350846574288382E-4</v>
-          </cell>
-          <cell r="F236">
-            <v>-1.2556703158772017E-2</v>
-          </cell>
-          <cell r="G236">
-            <v>0.11830545629452358</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="B237">
-            <v>43174</v>
-          </cell>
-          <cell r="E237">
-            <v>-5.6193076921573423E-3</v>
-          </cell>
-          <cell r="F237">
-            <v>1.1079697183645917E-2</v>
-          </cell>
-          <cell r="G237">
-            <v>3.3339747226466196E-2</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="B238">
-            <v>43175</v>
-          </cell>
-          <cell r="E238">
-            <v>-3.05702766001211E-3</v>
-          </cell>
-          <cell r="F238">
-            <v>9.3621119815311543E-3</v>
-          </cell>
-          <cell r="G238">
-            <v>-8.5455366073888442E-2</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="B239">
-            <v>43178</v>
-          </cell>
-          <cell r="E239">
-            <v>-8.7522734926307449E-3</v>
-          </cell>
-          <cell r="F239">
-            <v>-1.29967663160664E-2</v>
-          </cell>
-          <cell r="G239">
-            <v>-0.19172743590636057</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="B240">
-            <v>43179</v>
-          </cell>
-          <cell r="E240">
-            <v>-3.0933992543828452E-3</v>
-          </cell>
-          <cell r="F240">
-            <v>-2.1601196464816276E-3</v>
-          </cell>
-          <cell r="G240">
-            <v>-0.19672989384546483</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="B241">
-            <v>43180</v>
-          </cell>
-          <cell r="E241">
-            <v>-6.9353380937343103E-3</v>
-          </cell>
-          <cell r="F241">
-            <v>1.4091355760509922E-2</v>
-          </cell>
-          <cell r="G241">
-            <v>-0.19953773999066618</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="B242">
-            <v>43181</v>
-          </cell>
-          <cell r="E242">
-            <v>-2.6506111036693435E-2</v>
-          </cell>
-          <cell r="F242">
-            <v>-2.0735898479178276E-2</v>
-          </cell>
-          <cell r="G242">
-            <v>0.36751446404000154</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="B243">
-            <v>43182</v>
-          </cell>
-          <cell r="E243">
-            <v>-2.1672289254508561E-2</v>
-          </cell>
-          <cell r="F243">
-            <v>-8.3339508246693603E-3</v>
-          </cell>
-          <cell r="G243">
-            <v>0.59782391646215505</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="B244">
-            <v>43185</v>
-          </cell>
-          <cell r="E244">
-            <v>3.2212894260807819E-2</v>
-          </cell>
-          <cell r="F244">
-            <v>1.5113637810048106E-2</v>
-          </cell>
-          <cell r="G244">
-            <v>0.59071169948457147</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="B245">
-            <v>43186</v>
-          </cell>
-          <cell r="E245">
-            <v>-1.9451555059461865E-2</v>
-          </cell>
-          <cell r="F245">
-            <v>-4.0622940088787928E-3</v>
-          </cell>
-          <cell r="G245">
-            <v>0.64340355205615374</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="2">
+  <a r="13" c="3">
+    <v t="s"/>
+    <v t="s">EBAY</v>
+    <v t="s">XOM</v>
+    <v t="s">Date</v>
+    <v t="s"/>
+    <v t="s"/>
+    <v t="r">0</v>
+    <v>2.3712948517940813E-2</v>
+    <v>7.6439403279497942E-3</v>
+    <v t="r">1</v>
+    <v>6.0957025297163625E-3</v>
+    <v>-4.0376850605652326E-3</v>
+    <v t="r">2</v>
+    <v>1.5146925174192027E-3</v>
+    <v>-1.719901719901773E-3</v>
+    <v t="r">3</v>
+    <v>1.0284331518451095E-2</v>
+    <v>4.7994093034704477E-3</v>
+    <v t="r">4</v>
+    <v>-2.6946107784430184E-3</v>
+    <v>5.0214329454989493E-3</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="r">5</v>
+    <v>-6.9113441372735673E-3</v>
+    <v>1.4191106906338957E-2</v>
+    <v t="r">6</v>
+    <v>-2.6157907367410638E-2</v>
+    <v>-2.0522388059701524E-2</v>
+    <v t="r">7</v>
+    <v>-2.143913257762442E-2</v>
+    <v>-8.2993197278911079E-3</v>
+    <v t="r">8</v>
+    <v>3.2737345756736369E-2</v>
+    <v>1.5228426395939021E-2</v>
+    <v t="r">9</v>
+    <v>-1.9263594245305993E-2</v>
+    <v>-4.0540540540540126E-3</v>
+  </a>
+  <a r="12" c="2">
+    <v t="s">Date</v>
+    <v t="s"/>
+    <v t="r">0</v>
+    <v t="r">13</v>
+    <v t="r">1</v>
+    <v t="r">13</v>
+    <v t="r">2</v>
+    <v t="r">13</v>
+    <v t="r">3</v>
+    <v t="r">13</v>
+    <v t="r">4</v>
+    <v t="r">13</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="r">5</v>
+    <v>0.34184715456309533</v>
+    <v t="r">6</v>
+    <v>0.38872164586793245</v>
+    <v t="r">7</v>
+    <v>0.37591980647326922</v>
+    <v t="r">8</v>
+    <v>0.45423494044964868</v>
+    <v t="r">9</v>
+    <v>0.43496174162953966</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="19">
+  <rv s="0">
+    <fb>42850</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>42851</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>42852</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>42853</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>42856</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>43180</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>43181</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>43182</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>43185</fb>
+    <v>2</v>
+  </rv>
+  <rv s="0">
+    <fb>43186</fb>
+    <v>2</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>10</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">                EBAY       XOM
+Date                          
+2017-04-25  0.023713  0.007644
+2017-04-26  0.006096 -0.004038
+2017-04-27  0.001515 -0.001720
+2017-04-28  0.010284  0.004799
+2017-05-01 -0.002695  0.005021
+...              ...       ...
+2018...</v>
+    <v>11</v>
+    <v>3</v>
+  </rv>
+  <rv s="0">
+    <fb>0</fb>
+    <v>6</v>
+  </rv>
+  <rv s="1">
+    <v>1</v>
+  </rv>
+  <rv s="2">
+    <v>Series</v>
+    <v>5</v>
+    <v>14</v>
+  </rv>
+  <rv s="3">
+    <v>&lt;class 'pandas.core.series.Series'&gt;</v>
+    <v>Series</v>
+    <v>Date
+2017-04-25         NaN
+2017-04-26         NaN
+2017-04-27         NaN
+2017-04-28         NaN
+2017-05-01         NaN
+                ...   
+2018-03-21    0.341847
+2018-03-22    0.388722
+2018-03-23    0.375920
+2018-03-26    0.454235
+2018-03-27    0.4...</v>
+    <v>15</v>
+    <v>3</v>
+  </rv>
+  <rv s="4">
+    <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="4">
+    <v>1</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+  <s t="_formattednumber">
+    <k n="_Format" t="spb"/>
+  </s>
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="7">
+    <spb s="0">
+      <v>232</v>
+      <v>2</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+    <spb s="0">
+      <v>232</v>
+      <v>1</v>
+      <v>Series</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>4</v>
+    </spb>
+    <spb s="2">
+      <v>2</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="_Self" t="i"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="2">
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1"/>
+    <rSty dxfid="0">
+      <rpv i="0">0;-0;"nan"</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2FE8F551-79E5-40C6-9E03-0C7674B3167E}" name="prices" displayName="prices" ref="A1:C234" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2FE8F551-79E5-40C6-9E03-0C7674B3167E}" name="prices" displayName="prices" ref="A1:C234" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:C234" xr:uid="{2FE8F551-79E5-40C6-9E03-0C7674B3167E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2088B0DC-9D9E-49BC-B088-8BD154FE2BE3}" name="Date" dataDxfId="3"/>
@@ -8331,7 +5633,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4ABB258C-9DFE-4B4D-99C8-3AAF1E3805CB}" name="Table1" displayName="Table1" ref="B12:G245" totalsRowShown="0">
   <autoFilter ref="B12:G245" xr:uid="{B82A1C9C-5818-44EA-813D-2848CD72A3F5}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5B3A1C04-5E52-463E-8D8E-548F2D9E0B49}" name="Date" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{5B3A1C04-5E52-463E-8D8E-548F2D9E0B49}" name="Date" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{278F770A-F713-4F5D-8D77-1AA7AE4F8B84}" name="EBAY"/>
     <tableColumn id="3" xr3:uid="{EE06E6A9-84BC-49AC-9285-022574265F7E}" name="XOM"/>
     <tableColumn id="4" xr3:uid="{F7D4525D-4A65-4620-8215-FB9D651FB11D}" name="EBAY_rtn">
@@ -8663,18 +5965,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5578F65-07A7-4DDE-A796-35F2CCCF3C9A}">
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:F234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="20" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -8684,8 +5986,14 @@
       <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="E1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="93" x14ac:dyDescent="0.7">
       <c r="A2" s="15">
         <v>42849</v>
       </c>
@@ -8695,8 +6003,15 @@
       <c r="C2" s="1">
         <v>81.11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="E2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="F2" ca="1">_xlfn._xlws.PY(0,1,prices[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A3" s="16">
         <v>42850</v>
       </c>
@@ -8706,8 +6021,15 @@
       <c r="C3" s="2">
         <v>81.73</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="E3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="e" cm="1" vm="2">
+        <f t="array" aca="1" ref="F3" ca="1">_xlfn._xlws.PY(1,1,F1)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A4" s="15">
         <v>42851</v>
       </c>
@@ -8717,8 +6039,15 @@
       <c r="C4" s="1">
         <v>81.400000000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="E4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="e" cm="1" vm="3">
+        <f t="array" aca="1" ref="F4" ca="1">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A5" s="16">
         <v>42852</v>
       </c>
@@ -8729,7 +6058,7 @@
         <v>81.260000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6" s="15">
         <v>42853</v>
       </c>
@@ -8740,7 +6069,7 @@
         <v>81.650000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" s="16">
         <v>42856</v>
       </c>
@@ -8751,7 +6080,7 @@
         <v>82.06</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" s="15">
         <v>42857</v>
       </c>
@@ -8762,7 +6091,7 @@
         <v>82.05</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="16">
         <v>42858</v>
       </c>
@@ -8773,7 +6102,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="15">
         <v>42859</v>
       </c>
@@ -8784,7 +6113,7 @@
         <v>81.64</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="16">
         <v>42860</v>
       </c>
@@ -8795,7 +6124,7 @@
         <v>82.02</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="15">
         <v>42863</v>
       </c>
@@ -8806,7 +6135,7 @@
         <v>82.89</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="16">
         <v>42864</v>
       </c>
@@ -8817,7 +6146,7 @@
         <v>82.31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="15">
         <v>42865</v>
       </c>
@@ -8828,7 +6157,7 @@
         <v>81.91</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="16">
         <v>42866</v>
       </c>
@@ -8839,7 +6168,7 @@
         <v>82.61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A16" s="15">
         <v>42867</v>
       </c>
@@ -8850,7 +6179,7 @@
         <v>82.55</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A17" s="16">
         <v>42870</v>
       </c>
@@ -8861,7 +6190,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A18" s="15">
         <v>42871</v>
       </c>
@@ -8872,7 +6201,7 @@
         <v>82.55</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A19" s="16">
         <v>42872</v>
       </c>
@@ -8883,7 +6212,7 @@
         <v>81.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A20" s="15">
         <v>42873</v>
       </c>
@@ -8894,7 +6223,7 @@
         <v>81.75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A21" s="16">
         <v>42874</v>
       </c>
@@ -8905,7 +6234,7 @@
         <v>81.93</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A22" s="15">
         <v>42877</v>
       </c>
@@ -8916,7 +6245,7 @@
         <v>82.29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A23" s="16">
         <v>42878</v>
       </c>
@@ -8927,7 +6256,7 @@
         <v>82.58</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A24" s="15">
         <v>42879</v>
       </c>
@@ -8938,7 +6267,7 @@
         <v>82.29</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A25" s="16">
         <v>42880</v>
       </c>
@@ -8949,7 +6278,7 @@
         <v>81.75</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:6" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A26" s="15">
         <v>42881</v>
       </c>
@@ -8959,8 +6288,15 @@
       <c r="C26" s="1">
         <v>81.55</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.7">
+      <c r="E26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="e" cm="1" vm="4">
+        <f t="array" aca="1" ref="F26" ca="1">_xlfn._xlws.PY(3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A27" s="16">
         <v>42885</v>
       </c>
@@ -8971,7 +6307,7 @@
         <v>81.099999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A28" s="15">
         <v>42886</v>
       </c>
@@ -8982,7 +6318,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A29" s="16">
         <v>42887</v>
       </c>
@@ -8993,7 +6329,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A30" s="15">
         <v>42888</v>
       </c>
@@ -9004,7 +6340,7 @@
         <v>79.5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A31" s="16">
         <v>42891</v>
       </c>
@@ -9015,7 +6351,7 @@
         <v>80.12</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A32" s="15">
         <v>42892</v>
       </c>
@@ -11250,8 +8586,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -11260,8 +8597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83338317-10B3-4B8B-9A75-A488B1453279}">
   <dimension ref="B1:AA245"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView showGridLines="0" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
